--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifne-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifne-Ifnar2.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H2">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.47224833333333</v>
+        <v>27.85292233333333</v>
       </c>
       <c r="N2">
-        <v>70.41674499999999</v>
+        <v>83.55876699999999</v>
       </c>
       <c r="O2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="P2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="Q2">
-        <v>1.778797395445</v>
+        <v>4.251015133895221</v>
       </c>
       <c r="R2">
-        <v>16.009176559005</v>
+        <v>38.25913620505699</v>
       </c>
       <c r="S2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="T2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H3">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>79.98248000000001</v>
       </c>
       <c r="O3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="P3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="Q3">
-        <v>2.02043742728</v>
+        <v>4.069073122231111</v>
       </c>
       <c r="R3">
-        <v>18.18393684552001</v>
+        <v>36.62165810008</v>
       </c>
       <c r="S3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="T3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H4">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.28694033333333</v>
+        <v>105.665011</v>
       </c>
       <c r="N4">
-        <v>201.860821</v>
+        <v>316.995033</v>
       </c>
       <c r="O4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="P4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="Q4">
-        <v>5.099206199281</v>
+        <v>16.12698141719367</v>
       </c>
       <c r="R4">
-        <v>45.892855793529</v>
+        <v>145.142832754743</v>
       </c>
       <c r="S4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="T4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H5">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.116759333333333</v>
+        <v>4.883238666666666</v>
       </c>
       <c r="N5">
-        <v>15.350278</v>
+        <v>14.649716</v>
       </c>
       <c r="O5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="P5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="Q5">
-        <v>0.387763372558</v>
+        <v>0.745297790515111</v>
       </c>
       <c r="R5">
-        <v>3.489870353022</v>
+        <v>6.707680114635999</v>
       </c>
       <c r="S5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="T5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H6">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.067047</v>
+        <v>71.84303666666666</v>
       </c>
       <c r="N6">
-        <v>231.201141</v>
+        <v>215.52911</v>
       </c>
       <c r="O6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="P6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="Q6">
-        <v>5.840372022801001</v>
+        <v>10.96494768053444</v>
       </c>
       <c r="R6">
-        <v>52.56334820520901</v>
+        <v>98.68452912481</v>
       </c>
       <c r="S6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="T6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
     </row>
   </sheetData>
